--- a/files/faturamento.xlsx
+++ b/files/faturamento.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -33,7 +33,7 @@
     <t>R$ 100.00</t>
   </si>
   <si>
-    <t>October/2023</t>
+    <t>10/2023</t>
   </si>
   <si>
     <t>R$ 1200.00</t>
@@ -87,16 +87,31 @@
     <t>Reposição Geral</t>
   </si>
   <si>
+    <t>R$ 30.00</t>
+  </si>
+  <si>
+    <t>Comprei sucos</t>
+  </si>
+  <si>
+    <t>11/2023</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
     <t>Quantidade de Produtos</t>
   </si>
   <si>
+    <t>Pago</t>
+  </si>
+  <si>
     <t>R$ 17.73</t>
   </si>
   <si>
-    <t>September/2023</t>
+    <t>09/2023</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
   <si>
     <t>R$ 1987.32</t>
@@ -193,6 +208,9 @@
   </si>
   <si>
     <t>R$ 1841.61</t>
+  </si>
+  <si>
+    <t>R$ 132.42</t>
   </si>
 </sst>
 </file>
@@ -532,7 +550,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,6 +766,20 @@
       </c>
       <c r="D15" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -771,7 +803,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,908 +811,1100 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C56">
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C60">
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>57</v>
@@ -1688,13 +1912,16 @@
       <c r="D65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1702,13 +1929,16 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -1716,13 +1946,16 @@
       <c r="D67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1730,13 +1963,16 @@
       <c r="D68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -1744,13 +1980,16 @@
       <c r="D69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -1758,13 +1997,16 @@
       <c r="D70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1772,13 +2014,16 @@
       <c r="D71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72">
         <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1786,19 +2031,42 @@
       <c r="D72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C73">
         <v>23</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
